--- a/medicine/Mort/Cimetière_de_Tama/Cimetière_de_Tama.xlsx
+++ b/medicine/Mort/Cimetière_de_Tama/Cimetière_de_Tama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Tama</t>
+          <t>Cimetière_de_Tama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Tama Reien est l'un des plus vastes de la région de Tokyo et comporte de très nombreuses tombes de Japonais célèbres.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Tama</t>
+          <t>Cimetière_de_Tama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Tama</t>
+          <t>Cimetière_de_Tama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Personnalités enterrées au cimetière de Tama Reien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ōsako Naomichi (1854-1934), général de l'armée impériale japonaise, frère du général Ōsako Naoharu.
 Yoshisuke Aikawa (1880-1967), fondateur et premier président du zaibatsu Nissan entre 1931 et 1945
@@ -569,7 +585,7 @@
 Takeo Kurita (1889-1977), haut commandant dans la Marine impériale japonaise durant la Seconde Guerre mondiale.
 Genji Matsuda (1876-1936), homme politique membre du cabinet de l'empire du Japon.
 Tokushichi Mishima (1893-1975), métallurgiste
-Yukio Mishima[1] (1925-1970), écrivain légendaire, connu dans le monde entier et suicidé par seppuku, Mishima est enterré ici dans le caveau familial.
+Yukio Mishima (1925-1970), écrivain légendaire, connu dans le monde entier et suicidé par seppuku, Mishima est enterré ici dans le caveau familial.
 Chikuhei Nakajima (1884-1949), fondateur de la Nakajima Aircraft Company membre du cabinet dans plusieurs postes.
 Kōgo Noda (1893-1968), scénariste surtout connu pour sa collaboration avec le réalisateur Yasujirō Ozu
 Keisuke Okada (1868-1952), haut commandant naval, 31e Premier ministre du Japon du 8 juillet 1934 au 9 mars 1936.
